--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.044914666666666</v>
+        <v>2.232451333333333</v>
       </c>
       <c r="H2">
-        <v>3.134744</v>
+        <v>6.697354</v>
       </c>
       <c r="I2">
-        <v>0.006668841574421892</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="J2">
-        <v>0.006668841574421893</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.33077566666667</v>
+        <v>39.327127</v>
       </c>
       <c r="N2">
-        <v>75.992327</v>
+        <v>117.981381</v>
       </c>
       <c r="O2">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449503</v>
       </c>
       <c r="P2">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449502</v>
       </c>
       <c r="Q2">
-        <v>26.46849901214311</v>
+        <v>87.79589710731932</v>
       </c>
       <c r="R2">
-        <v>238.216491109288</v>
+        <v>790.163073965874</v>
       </c>
       <c r="S2">
-        <v>0.006590344896233482</v>
+        <v>0.01403309003987575</v>
       </c>
       <c r="T2">
-        <v>0.006590344896233483</v>
+        <v>0.01403309003987575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.044914666666666</v>
+        <v>2.232451333333333</v>
       </c>
       <c r="H3">
-        <v>3.134744</v>
+        <v>6.697354</v>
       </c>
       <c r="I3">
-        <v>0.006668841574421892</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="J3">
-        <v>0.006668841574421893</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.172996</v>
       </c>
       <c r="O3">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="P3">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="Q3">
-        <v>0.06025535255822222</v>
+        <v>0.1287350502871111</v>
       </c>
       <c r="R3">
-        <v>0.542298173024</v>
+        <v>1.158615452584</v>
       </c>
       <c r="S3">
-        <v>1.500287398316948E-05</v>
+        <v>2.057670815480916E-05</v>
       </c>
       <c r="T3">
-        <v>1.500287398316948E-05</v>
+        <v>2.057670815480915E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.044914666666666</v>
+        <v>2.232451333333333</v>
       </c>
       <c r="H4">
-        <v>3.134744</v>
+        <v>6.697354</v>
       </c>
       <c r="I4">
-        <v>0.006668841574421892</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="J4">
-        <v>0.006668841574421893</v>
+        <v>0.01414074962829973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.732138</v>
       </c>
       <c r="O4">
-        <v>0.009520964547841182</v>
+        <v>0.00615829305787961</v>
       </c>
       <c r="P4">
-        <v>0.009520964547841182</v>
+        <v>0.006158293057879609</v>
       </c>
       <c r="Q4">
-        <v>0.2550072447413332</v>
+        <v>0.5448208180946665</v>
       </c>
       <c r="R4">
-        <v>2.295065202671999</v>
+        <v>4.903387362851999</v>
       </c>
       <c r="S4">
-        <v>6.34938042052402E-05</v>
+        <v>8.708288026917192E-05</v>
       </c>
       <c r="T4">
-        <v>6.349380420524021E-05</v>
+        <v>8.70828802691719E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>383.601051</v>
       </c>
       <c r="I5">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="J5">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.33077566666667</v>
+        <v>39.327127</v>
       </c>
       <c r="N5">
-        <v>75.992327</v>
+        <v>117.981381</v>
       </c>
       <c r="O5">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449503</v>
       </c>
       <c r="P5">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449502</v>
       </c>
       <c r="Q5">
-        <v>3238.970722792853</v>
+        <v>5028.642416670158</v>
       </c>
       <c r="R5">
-        <v>29150.73650513568</v>
+        <v>45257.78175003143</v>
       </c>
       <c r="S5">
-        <v>0.8064656088815069</v>
+        <v>0.8037663961131472</v>
       </c>
       <c r="T5">
-        <v>0.8064656088815069</v>
+        <v>0.803766396113147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>383.601051</v>
       </c>
       <c r="I6">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="J6">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.172996</v>
       </c>
       <c r="O6">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="P6">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="Q6">
         <v>7.373494157644</v>
@@ -818,10 +818,10 @@
         <v>66.361447418796</v>
       </c>
       <c r="S6">
-        <v>0.001835913308380005</v>
+        <v>0.001178561992438366</v>
       </c>
       <c r="T6">
-        <v>0.001835913308380005</v>
+        <v>0.001178561992438366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>383.601051</v>
       </c>
       <c r="I7">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="J7">
-        <v>0.8160713081836134</v>
+        <v>0.8099327614075106</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.732138</v>
       </c>
       <c r="O7">
-        <v>0.009520964547841182</v>
+        <v>0.00615829305787961</v>
       </c>
       <c r="P7">
-        <v>0.009520964547841182</v>
+        <v>0.006158293057879609</v>
       </c>
       <c r="Q7">
         <v>31.20543403078199</v>
@@ -880,10 +880,10 @@
         <v>280.848906277038</v>
       </c>
       <c r="S7">
-        <v>0.007769785993726559</v>
+        <v>0.004987803301925135</v>
       </c>
       <c r="T7">
-        <v>0.007769785993726559</v>
+        <v>0.004987803301925134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.77415166666667</v>
+        <v>27.77415166666666</v>
       </c>
       <c r="H8">
-        <v>83.32245500000001</v>
+        <v>83.32245499999999</v>
       </c>
       <c r="I8">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="J8">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.33077566666667</v>
+        <v>39.327127</v>
       </c>
       <c r="N8">
-        <v>75.992327</v>
+        <v>117.981381</v>
       </c>
       <c r="O8">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449503</v>
       </c>
       <c r="P8">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449502</v>
       </c>
       <c r="Q8">
-        <v>703.5408052003095</v>
+        <v>1092.277589912261</v>
       </c>
       <c r="R8">
-        <v>6331.867246802785</v>
+        <v>9830.498309210354</v>
       </c>
       <c r="S8">
-        <v>0.1751733845095147</v>
+        <v>0.1745870851919274</v>
       </c>
       <c r="T8">
-        <v>0.1751733845095147</v>
+        <v>0.1745870851919273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.77415166666667</v>
+        <v>27.77415166666666</v>
       </c>
       <c r="H9">
-        <v>83.32245500000001</v>
+        <v>83.32245499999999</v>
       </c>
       <c r="I9">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="J9">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.172996</v>
       </c>
       <c r="O9">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="P9">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="Q9">
         <v>1.601605713908889</v>
@@ -1004,10 +1004,10 @@
         <v>14.41445142518</v>
       </c>
       <c r="S9">
-        <v>0.000398780982540619</v>
+        <v>0.0002559968965769495</v>
       </c>
       <c r="T9">
-        <v>0.0003987809825406189</v>
+        <v>0.0002559968965769494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.77415166666667</v>
+        <v>27.77415166666666</v>
       </c>
       <c r="H10">
-        <v>83.32245500000001</v>
+        <v>83.32245499999999</v>
       </c>
       <c r="I10">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="J10">
-        <v>0.1772598502419647</v>
+        <v>0.1759264889641896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>0.732138</v>
       </c>
       <c r="O10">
-        <v>0.009520964547841182</v>
+        <v>0.00615829305787961</v>
       </c>
       <c r="P10">
-        <v>0.009520964547841182</v>
+        <v>0.006158293057879609</v>
       </c>
       <c r="Q10">
-        <v>6.778170617643333</v>
+        <v>6.778170617643332</v>
       </c>
       <c r="R10">
-        <v>61.00353555879</v>
+        <v>61.00353555878999</v>
       </c>
       <c r="S10">
-        <v>0.001687684749909383</v>
+        <v>0.001083406875685303</v>
       </c>
       <c r="T10">
-        <v>0.001687684749909383</v>
+        <v>0.001083406875685302</v>
       </c>
     </row>
   </sheetData>
